--- a/Data_Results/TransferLearning Model results (leave-one-out Cross Validation).xlsx
+++ b/Data_Results/TransferLearning Model results (leave-one-out Cross Validation).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaber\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/qezelbashc_jaber_ufl_edu/Documents/Educational/Research/FHRT/PROJECT/GitHub/FHR_Project/Data_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584DDCAE-54A9-4E14-927D-B87A07EA0BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -551,7 +551,7 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="G2" sqref="G2"/>
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data_Results/TransferLearning Model results (leave-one-out Cross Validation).xlsx
+++ b/Data_Results/TransferLearning Model results (leave-one-out Cross Validation).xlsx
@@ -8,12 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/qezelbashc_jaber_ufl_edu/Documents/Educational/Research/FHRT/PROJECT/GitHub/FHR_Project/Data_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584DDCAE-54A9-4E14-927D-B87A07EA0BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="773" documentId="13_ncr:1_{584DDCAE-54A9-4E14-927D-B87A07EA0BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05071D63-08B0-44CC-8C2C-08BCC99455A4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TL-PCA" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
+    <sheet name="TL-Autoencoder" sheetId="7" r:id="rId3"/>
+    <sheet name="RNN-PCA" sheetId="4" r:id="rId4"/>
+    <sheet name="RNN-Autoencoder" sheetId="5" r:id="rId5"/>
+    <sheet name="Transformer-Autoencoder" sheetId="2" r:id="rId6"/>
+    <sheet name="Transformer-PCA" sheetId="6" r:id="rId7"/>
+    <sheet name="RF-PCA" sheetId="3" r:id="rId8"/>
+    <sheet name="RF-Autoencoder" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="79">
   <si>
     <t xml:space="preserve">Fold </t>
   </si>
@@ -44,160 +52,282 @@
     <t>Patient</t>
   </si>
   <si>
+    <t>Signal_14c</t>
+  </si>
+  <si>
+    <t>Signal_10c</t>
+  </si>
+  <si>
+    <t>Signal_13S</t>
+  </si>
+  <si>
+    <t>Signal_15c</t>
+  </si>
+  <si>
+    <t>Signal_16s</t>
+  </si>
+  <si>
+    <t>Signal_17s</t>
+  </si>
+  <si>
+    <t>Signal_18c</t>
+  </si>
+  <si>
+    <t>Signal_20s</t>
+  </si>
+  <si>
+    <t>Signal_21s</t>
+  </si>
+  <si>
+    <t>Signal_23c</t>
+  </si>
+  <si>
+    <t>Signal_25s</t>
+  </si>
+  <si>
+    <t>Signal_26c</t>
+  </si>
+  <si>
+    <t>Signal_27c</t>
+  </si>
+  <si>
+    <t>Signal_28s</t>
+  </si>
+  <si>
+    <t>Signal_30s</t>
+  </si>
+  <si>
+    <t>Signal_34s</t>
+  </si>
+  <si>
+    <t>Signal_35c</t>
+  </si>
+  <si>
+    <t>Signal_36c</t>
+  </si>
+  <si>
+    <t>Signal_37c</t>
+  </si>
+  <si>
+    <t>Signal_39s</t>
+  </si>
+  <si>
+    <t>Signal_3c</t>
+  </si>
+  <si>
+    <t>Signal_40s</t>
+  </si>
+  <si>
+    <t>Signal_41c</t>
+  </si>
+  <si>
+    <t>Signal_42c</t>
+  </si>
+  <si>
+    <t>Signal_43s</t>
+  </si>
+  <si>
+    <t>Signal_44s</t>
+  </si>
+  <si>
+    <t>Signal_45s</t>
+  </si>
+  <si>
+    <t>Signal_46s</t>
+  </si>
+  <si>
+    <t>Signal_47s</t>
+  </si>
+  <si>
+    <t>Signal_48s</t>
+  </si>
+  <si>
+    <t>Signal_49s</t>
+  </si>
+  <si>
+    <t>Signal_50s</t>
+  </si>
+  <si>
+    <t>Signal_53s</t>
+  </si>
+  <si>
+    <t>Signal_54c</t>
+  </si>
+  <si>
+    <t>Signal_55c</t>
+  </si>
+  <si>
+    <t>Signal_56c</t>
+  </si>
+  <si>
+    <t>Signal_57c</t>
+  </si>
+  <si>
+    <t>Signal_58c</t>
+  </si>
+  <si>
+    <t>Signal_59c</t>
+  </si>
+  <si>
+    <t>Signal_5s</t>
+  </si>
+  <si>
+    <t>Signal_61c</t>
+  </si>
+  <si>
+    <t>Signal_62c</t>
+  </si>
+  <si>
+    <t>Signal_6c</t>
+  </si>
+  <si>
+    <t>Signal_7s</t>
+  </si>
+  <si>
+    <t>Total number of correct predictions =</t>
+  </si>
+  <si>
+    <t>Abstained threshold</t>
+  </si>
+  <si>
+    <t>FP (c but predicted nc)</t>
+  </si>
+  <si>
+    <t>FN (nc but predicted  c)</t>
+  </si>
+  <si>
+    <t>TP (nc)- Normal/Normal</t>
+  </si>
+  <si>
+    <t>TN (c) - Abnormal/Abnormal</t>
+  </si>
+  <si>
+    <t>TP (nc) - Normal/Normal</t>
+  </si>
+  <si>
     <t>TP</t>
   </si>
   <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
     <t>TN</t>
   </si>
   <si>
-    <t>FP</t>
-  </si>
-  <si>
-    <t>FN</t>
-  </si>
-  <si>
-    <t>Signal_14c</t>
-  </si>
-  <si>
-    <t>Signal_10c</t>
-  </si>
-  <si>
-    <t>Total number of abtentions =</t>
-  </si>
-  <si>
-    <t>Signal_13S</t>
-  </si>
-  <si>
-    <t>Signal_15c</t>
-  </si>
-  <si>
-    <t>Signal_16s</t>
-  </si>
-  <si>
-    <t>Signal_17s</t>
-  </si>
-  <si>
-    <t>Signal_18c</t>
-  </si>
-  <si>
-    <t>Signal_20s</t>
-  </si>
-  <si>
-    <t>Signal_21s</t>
-  </si>
-  <si>
-    <t>Signal_23c</t>
-  </si>
-  <si>
-    <t>Signal_25s</t>
-  </si>
-  <si>
-    <t>Signal_26c</t>
-  </si>
-  <si>
-    <t>Signal_27c</t>
-  </si>
-  <si>
-    <t>Signal_28s</t>
-  </si>
-  <si>
-    <t>Signal_30s</t>
-  </si>
-  <si>
-    <t>Signal_34s</t>
-  </si>
-  <si>
-    <t>Signal_35c</t>
-  </si>
-  <si>
-    <t>Signal_36c</t>
-  </si>
-  <si>
-    <t>Signal_37c</t>
-  </si>
-  <si>
-    <t>Signal_39s</t>
-  </si>
-  <si>
-    <t>Signal_3c</t>
-  </si>
-  <si>
-    <t>Signal_40s</t>
-  </si>
-  <si>
-    <t>Signal_41c</t>
-  </si>
-  <si>
-    <t>Signal_42c</t>
-  </si>
-  <si>
-    <t>Signal_43s</t>
-  </si>
-  <si>
-    <t>Signal_44s</t>
-  </si>
-  <si>
-    <t>Signal_45s</t>
-  </si>
-  <si>
-    <t>Signal_46s</t>
-  </si>
-  <si>
-    <t>Signal_47s</t>
-  </si>
-  <si>
-    <t>Signal_48s</t>
-  </si>
-  <si>
-    <t>Signal_49s</t>
-  </si>
-  <si>
-    <t>Signal_50s</t>
-  </si>
-  <si>
-    <t>Signal_53s</t>
-  </si>
-  <si>
-    <t>Signal_54c</t>
-  </si>
-  <si>
-    <t>Signal_55c</t>
-  </si>
-  <si>
-    <t>Signal_56c</t>
-  </si>
-  <si>
-    <t>Signal_57c</t>
-  </si>
-  <si>
-    <t>Signal_58c</t>
-  </si>
-  <si>
-    <t>Signal_59c</t>
-  </si>
-  <si>
-    <t>Signal_5s</t>
-  </si>
-  <si>
-    <t>Signal_61c</t>
-  </si>
-  <si>
-    <t>Signal_62c</t>
-  </si>
-  <si>
-    <t>Signal_6c</t>
-  </si>
-  <si>
-    <t>Signal_7s</t>
-  </si>
-  <si>
-    <t>Total number of correct predictions =</t>
-  </si>
-  <si>
-    <t>SUM</t>
-  </si>
-  <si>
-    <t>Abstained threshold</t>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Abnormal</t>
+  </si>
+  <si>
+    <t>NC =</t>
+  </si>
+  <si>
+    <t>C =</t>
+  </si>
+  <si>
+    <t>Was not abstained!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: We have an RNN (LSTM) model that is designed and trained on the public available dataset.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The pretrained model from Step 1 is utilized and overtrained on Shands’ 44 samples 
+o  At 0.85 abstention, the model achieves 100% performance for samples the model does prediction.
+o  21 samples out of 44 samples have 100% accuracy for their predictions
+o  23 samples out pf 44 are abstained and we need to make a decision about them (Cathegory II maybe)
+o  We only used one Lambda (abstain parameter) for decidion making
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Total number of incorrect predictions =</t>
+  </si>
+  <si>
+    <t>Abstention (out of all incorrect predictions )=</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Dimensionality reduction metod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCA </t>
+  </si>
+  <si>
+    <t>Transformer</t>
+  </si>
+  <si>
+    <t>RNN (LSTM)</t>
+  </si>
+  <si>
+    <t>Transfer Learning based RNN (LSTM)</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Autoencoder</t>
   </si>
 </sst>
 </file>
@@ -221,7 +351,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,11 +364,91 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -247,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -262,6 +472,60 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -279,6 +543,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -544,29 +812,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C5:L50"/>
+  <dimension ref="C5:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="G2" sqref="G2"/>
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
-      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
-    <col min="5" max="8" width="9.140625" style="1"/>
+    <col min="5" max="5" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="34.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="3"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
@@ -574,38 +846,42 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -613,31 +889,38 @@
       <c r="I7" s="1">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="L8" s="4">
-        <f>SUM(G6:H49)</f>
+        <f>SUM(G50:H50)</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="16">
+        <f>L8/44</f>
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -646,30 +929,34 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L9" s="4">
-        <f>SUM(E6:F49)</f>
+        <f>SUM(E50:F50)</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="16">
+        <f>L9/44</f>
+        <v>0.47727272727272729</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -678,12 +965,12 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
@@ -692,23 +979,33 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:18" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K13" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -717,12 +1014,12 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -731,12 +1028,12 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -750,7 +1047,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
@@ -764,7 +1061,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -775,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -789,7 +1086,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -803,7 +1100,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -814,7 +1111,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -825,7 +1122,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
@@ -839,7 +1136,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -850,7 +1147,7 @@
         <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -864,7 +1161,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -875,7 +1172,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -886,7 +1183,7 @@
         <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H28" s="1">
         <v>1</v>
@@ -899,13 +1196,16 @@
       <c r="C29" s="1">
         <v>24</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="1">
-        <v>1</v>
-      </c>
-      <c r="I29" s="5">
+      <c r="D29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="6">
         <v>0.6</v>
       </c>
     </row>
@@ -914,7 +1214,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
@@ -925,7 +1225,7 @@
         <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -939,7 +1239,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -953,7 +1253,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
@@ -964,7 +1264,7 @@
         <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
@@ -975,7 +1275,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -986,7 +1286,7 @@
         <v>31</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
@@ -1000,7 +1300,7 @@
         <v>32</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
@@ -1014,7 +1314,7 @@
         <v>33</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
@@ -1028,7 +1328,7 @@
         <v>34</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -1039,7 +1339,7 @@
         <v>35</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -1050,7 +1350,7 @@
         <v>36</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -1061,7 +1361,7 @@
         <v>37</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H42" s="1">
         <v>1</v>
@@ -1075,7 +1375,7 @@
         <v>38</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H43" s="1">
         <v>1</v>
@@ -1089,7 +1389,7 @@
         <v>39</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H44" s="1">
         <v>1</v>
@@ -1103,7 +1403,7 @@
         <v>40</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
@@ -1114,7 +1414,7 @@
         <v>41</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -1125,7 +1425,7 @@
         <v>42</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -1136,7 +1436,7 @@
         <v>43</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H48" s="1">
         <v>1</v>
@@ -1150,7 +1450,7 @@
         <v>44</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
@@ -1158,7 +1458,7 @@
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C50" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2">
@@ -1180,7 +1480,4879 @@
       <c r="I50" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K13:R13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64E1B69-F1DC-40F8-9392-DEA15B0A446E}">
+  <dimension ref="E8:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="34" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.4773</v>
+      </c>
+      <c r="G10" s="23">
+        <v>0.61360000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.45450000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0.61360000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0.59089999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F8:G8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79192C7A-A169-41AC-B294-DEB62B791FB3}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="C5:R50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="41.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="3"/>
+    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="4">
+        <f>SUM(G50:H50)</f>
+        <v>17</v>
+      </c>
+      <c r="M8" s="16">
+        <f>L8/44</f>
+        <v>0.38636363636363635</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="15">
+        <f>SUM(E50:F50)</f>
+        <v>27</v>
+      </c>
+      <c r="M9" s="16">
+        <f>L9/44</f>
+        <v>0.61363636363636365</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="3">
+        <v>17</v>
+      </c>
+      <c r="M10" s="16">
+        <f>L10/L8</f>
+        <v>1</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="21"/>
+      <c r="N16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>30</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>31</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>33</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>34</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>35</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
+        <v>36</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
+        <v>37</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
+        <v>38</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
+        <v>39</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="1">
+        <v>40</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="1">
+        <v>41</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="1">
+        <v>42</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="1">
+        <v>43</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="14">
+        <v>44</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14">
+        <v>1</v>
+      </c>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2">
+        <f>SUM(E6:E49)</f>
+        <v>11</v>
+      </c>
+      <c r="F50" s="2">
+        <f>SUM(F6:F49)</f>
+        <v>16</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" ref="G50:H50" si="0">SUM(G6:G49)</f>
+        <v>6</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="M15:M16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED71EF0B-6A75-4211-8433-F4F10FC8726C}">
+  <dimension ref="C5:R50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="36.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="3"/>
+    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="4">
+        <f>SUM(G50:H50)</f>
+        <v>24</v>
+      </c>
+      <c r="M8" s="16">
+        <f>L8/44</f>
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="15">
+        <f>SUM(E50:F50)</f>
+        <v>20</v>
+      </c>
+      <c r="M9" s="16">
+        <f>L9/44</f>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M16" s="21"/>
+      <c r="N16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>30</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>31</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>33</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>34</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>35</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
+        <v>36</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
+        <v>37</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
+        <v>38</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
+        <v>39</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="1">
+        <v>40</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="1">
+        <v>41</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="1">
+        <v>42</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="1">
+        <v>43</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="14">
+        <v>44</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14">
+        <v>1</v>
+      </c>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2">
+        <f>SUM(E6:E49)</f>
+        <v>10</v>
+      </c>
+      <c r="F50" s="2">
+        <f>SUM(F6:F49)</f>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" ref="G50:H50" si="0">SUM(G6:G49)</f>
+        <v>13</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="M15:M16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0F7F59-837F-4189-89AC-73D5F638EAB3}">
+  <dimension ref="C5:R50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="36.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="3"/>
+    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="4">
+        <f>SUM(G50:H50)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="16">
+        <f>L8/44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="15">
+        <f>SUM(E50:F50)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="16">
+        <f>L9/44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="21"/>
+      <c r="N16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>30</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>31</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>33</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>34</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>35</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
+        <v>36</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
+        <v>37</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
+        <v>38</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
+        <v>39</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="1">
+        <v>40</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="1">
+        <v>41</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="1">
+        <v>42</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="1">
+        <v>43</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="14">
+        <v>44</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2">
+        <f>SUM(E6:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <f>SUM(F6:F49)</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" ref="G50:H50" si="0">SUM(G6:G49)</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="M15:M16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C671C0B-FC07-4895-BFBE-B3D40D787D01}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="C5:R50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="41.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="3"/>
+    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="4">
+        <f>SUM(G50:H50)</f>
+        <v>17</v>
+      </c>
+      <c r="M8" s="16">
+        <f>17/44</f>
+        <v>0.38636363636363635</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="15">
+        <f>SUM(E50:F50)</f>
+        <v>27</v>
+      </c>
+      <c r="M9" s="16">
+        <f>27/44</f>
+        <v>0.61363636363636365</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="3">
+        <v>15</v>
+      </c>
+      <c r="M10" s="16">
+        <f>L10/L8</f>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="21"/>
+      <c r="N16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>30</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>31</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>33</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>34</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>35</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
+        <v>36</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
+        <v>37</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
+        <v>38</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
+        <v>39</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="1">
+        <v>40</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="1">
+        <v>41</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="1">
+        <v>42</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="1">
+        <v>43</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="14">
+        <v>44</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14">
+        <v>1</v>
+      </c>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2">
+        <f>SUM(E6:E49)</f>
+        <v>12</v>
+      </c>
+      <c r="F50" s="2">
+        <f>SUM(F6:F49)</f>
+        <v>15</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" ref="G50:H50" si="0">SUM(G6:G49)</f>
+        <v>7</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="M15:M16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7F3B55-C727-449A-91AE-CFB6BEFAC58A}">
+  <dimension ref="C5:R50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="41.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="3"/>
+    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="4">
+        <f>SUM(G50:H50)</f>
+        <v>22</v>
+      </c>
+      <c r="M8" s="16">
+        <f>L8/44</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="4">
+        <f>SUM(E50:F50)</f>
+        <v>22</v>
+      </c>
+      <c r="M9" s="16">
+        <f>L9/44</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="16">
+        <f>L10/L8</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="21"/>
+      <c r="N16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>30</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>31</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>33</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>34</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>35</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
+        <v>36</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
+        <v>37</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
+        <v>38</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
+        <v>39</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="1">
+        <v>40</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="1">
+        <v>41</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="1">
+        <v>42</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="1">
+        <v>43</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="17">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="14">
+        <v>44</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14">
+        <v>1</v>
+      </c>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2">
+        <f>SUM(E6:E49)</f>
+        <v>8</v>
+      </c>
+      <c r="F50" s="2">
+        <f>SUM(F6:F49)</f>
+        <v>14</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" ref="G50:H50" si="0">SUM(G6:G49)</f>
+        <v>8</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="M15:M16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECC757E-003F-43CD-960A-A5A987B9A674}">
+  <dimension ref="C5:R50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="36.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="3"/>
+    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="4">
+        <f>SUM(G50:H50)</f>
+        <v>24</v>
+      </c>
+      <c r="M8" s="16">
+        <f>L8/44</f>
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="15">
+        <f>SUM(E50:F50)</f>
+        <v>20</v>
+      </c>
+      <c r="M9" s="16">
+        <f>L9/44</f>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M16" s="21"/>
+      <c r="N16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>30</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>31</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>33</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>34</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>35</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
+        <v>36</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
+        <v>37</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
+        <v>38</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
+        <v>39</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="1">
+        <v>40</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="1">
+        <v>41</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="1">
+        <v>42</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="1">
+        <v>43</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="14">
+        <v>44</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14">
+        <v>1</v>
+      </c>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2">
+        <f>SUM(E6:E49)</f>
+        <v>10</v>
+      </c>
+      <c r="F50" s="2">
+        <f>SUM(F6:F49)</f>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" ref="G50:H50" si="0">SUM(G6:G49)</f>
+        <v>12</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="M15:M16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B484CEF-1D0C-42EB-BBC1-65D97F1ED09B}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="C5:R50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="36.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="3"/>
+    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="4">
+        <f>SUM(G50:H50)</f>
+        <v>18</v>
+      </c>
+      <c r="M8" s="16">
+        <f>L8/44</f>
+        <v>0.40909090909090912</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="4">
+        <f>SUM(E50:F50)</f>
+        <v>26</v>
+      </c>
+      <c r="M9" s="16">
+        <f>L9/44</f>
+        <v>0.59090909090909094</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="21"/>
+      <c r="N16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>30</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>31</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>33</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>34</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>35</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
+        <v>36</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
+        <v>37</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
+        <v>38</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
+        <v>39</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="1">
+        <v>40</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="1">
+        <v>41</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="1">
+        <v>42</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="1">
+        <v>43</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="14">
+        <v>44</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14">
+        <v>1</v>
+      </c>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2">
+        <f>SUM(E6:E49)</f>
+        <v>11</v>
+      </c>
+      <c r="F50" s="2">
+        <f>SUM(F6:F49)</f>
+        <v>15</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" ref="G50:H50" si="0">SUM(G6:G49)</f>
+        <v>7</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="M15:M16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>